--- a/medicine/Enfance/Association_Petits_Princes/Association_Petits_Princes.xlsx
+++ b/medicine/Enfance/Association_Petits_Princes/Association_Petits_Princes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Association Petits Princes est une association à but non lucratif créée en 1987 qui s'est donnée pour but de réaliser les rêves d’enfants et adolescents malades atteints de cancers, leucémies et de certaines maladies génétiques.
@@ -514,10 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Création
-Dominique Bayle[1], professeure de culture physique, cherche un moyen de venir en aide aux enfants malades en réalisant leurs rêves. Avec sa belle-sœur, infirmière libérale, elle rencontre en 1987 Frédéric d'Agay, petit neveu d'Antoine de Saint-Exupéry, qui accorde gracieusement l’utilisation du nom « Petits Princes ». L’Association Petits Princes naît officiellement en novembre 1987[2] et permet en 1988 à un premier enfant de réaliser son rêve[3],[4].
-Évolution
-En 2010, l'Association Petits Princes obtient le statut d'association reconnue d'utilité publique.
+          <t>Création</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dominique Bayle, professeure de culture physique, cherche un moyen de venir en aide aux enfants malades en réalisant leurs rêves. Avec sa belle-sœur, infirmière libérale, elle rencontre en 1987 Frédéric d'Agay, petit neveu d'Antoine de Saint-Exupéry, qui accorde gracieusement l’utilisation du nom « Petits Princes ». L’Association Petits Princes naît officiellement en novembre 1987 et permet en 1988 à un premier enfant de réaliser son rêve,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Association_Petits_Princes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Association_Petits_Princes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Évolution</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2010, l'Association Petits Princes obtient le statut d'association reconnue d'utilité publique.
 L'Association a fêté, le 17 novembre 2018, son 7000e rêve réalisé.[réf. nécessaire]
 </t>
         </is>
